--- a/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>108,37%</t>
+          <t>-26,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>57,52%</t>
+          <t>102,23%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>60,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>90,43%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 13,55</t>
+          <t>-11,26; 11,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 5,18</t>
+          <t>-22,58; 4,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,79</t>
+          <t>1,94; 16,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 12,5</t>
+          <t>-0,25; 16,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 62,05</t>
+          <t>1,3; 17,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 76,61</t>
+          <t>-31,29; 51,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,16; 230,77</t>
+          <t>-80,17; 58,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 140,72</t>
+          <t>9,91; 239,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 171,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 308,97</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>67,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>126,98%</t>
+          <t>96,84%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>83,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>89,31%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 18,05</t>
+          <t>1,11; 21,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,54</t>
+          <t>-2,39; 10,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 13,83</t>
+          <t>0,29; 15,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 16,76</t>
+          <t>-0,13; 14,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 89,42</t>
+          <t>0,54; 27,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 273,08</t>
+          <t>4,29; 128,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 178,97</t>
+          <t>-30,66; 343,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,61; 311,32</t>
+          <t>0,44; 312,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 289,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 395,22</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>15,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,2%</t>
+          <t>118,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,7%</t>
+          <t>-20,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>-39,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-33,97%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-19,06%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 27,13</t>
+          <t>-5,94; 35,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 7,54</t>
+          <t>-22,09; 12,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 8,52</t>
+          <t>-28,95; 10,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,58; 9,93</t>
+          <t>-50,55; 16,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 415,98</t>
+          <t>-22,22; 9,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,5; 272,68</t>
+          <t>-33,08; 882,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,86; 148,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-88,39; 207,81</t>
+          <t>-87,76; 285,52</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-90,41; 320,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>75,25%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>80,73%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,11</t>
+          <t>-1,1; 13,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,85</t>
+          <t>-12,16; 4,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,16</t>
+          <t>2,12; 12,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,68</t>
+          <t>-2,3; 11,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 61,17</t>
+          <t>2,8; 15,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 87,38</t>
+          <t>-4,31; 64,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,4; 138,19</t>
+          <t>-59,44; 60,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 121,54</t>
+          <t>13,89; 151,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-15,97; 116,92</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 203,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,99</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,56</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-26,86%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>102,23%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>60,69%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>90,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.9923369118361891</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.969826799906023</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.56988593109127</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.651935220802764</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>8.426652231580013</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.03493959960532179</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1616887390289195</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.095169221792292</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5734279092866017</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8412328314069938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,26; 11,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 4,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 16,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 16,21</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 17,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-31,29; 51,62</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-80,17; 58,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,91; 239,47</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 171,02</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 308,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.25861467364884</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.52614721842838</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.668640051274674</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.796931859020706</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.7649827249486693</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3128888405244021</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.741630120435147</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1504564302810248</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.06640456107979816</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.0339914122487819</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.28989457483184</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.014156323281617</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.47482308913941</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>15.92253715738575</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>17.67303311177049</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.5162028207695896</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7780499990227094</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.586123711065213</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.679125295043631</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.903109908803791</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,93</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,24</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>51,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>67,51%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>96,84%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>83,08%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>89,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 21,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 10,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 15,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 14,15</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 27,01</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 128,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-30,66; 343,36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 312,21</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 289,85</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 395,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.48952865662399</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.275105282871491</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.80648462334131</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.559230461970401</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>9.684858245390537</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.509992518199531</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4403953293038152</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7728539921421499</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.025156431370872</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.8701004672228808</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15,58</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-10,04</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>118,14%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-20,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-39,95%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-33,97%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-19,06%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.113456076439963</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.205166348957386</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.287694686293383</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.6712415722827568</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.3397112598115898</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.04285580303465797</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5348397716338779</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1363159614791114</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.005263129174221534</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.03698906654713307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 35,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,09; 12,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-28,95; 10,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-50,55; 16,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-22,22; 9,65</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-33,08; 882,63</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-87,76; 285,52</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-90,41; 320,21</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>21.6524806296416</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.786300296453671</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.08355399836806</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.07180782323236</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>23.62385246227631</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.284962303908062</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.693496468769462</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.655155428817696</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.396567325613754</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.675357079786139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,225 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,18</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>28,03%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-4,59%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>75,25%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>42,53%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>80,73%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>15.57510615999719</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2031415990375124</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.376117219455401</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.308123916796353</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-1.094398968025834</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.181440428292873</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.01917412622732601</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4097062115602173</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2933949866486394</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1374991425039832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 13,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,16; 4,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 12,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 11,1</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 15,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 64,49</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-59,44; 60,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13,89; 151,75</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-15,97; 116,92</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>19,28; 203,21</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.941301102859091</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.19778432816446</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-28.64945694448777</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-49.04974681300928</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-20.73420763559685</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3308499569985542</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.882628373868934</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8966232490198551</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>35.93428054207561</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.98058052817882</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.45343135579069</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.69738259481403</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>10.25360065737669</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>8.826339072688105</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>2.810610789521095</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>3.539248033219629</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.831821485215272</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4040288410690304</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.264041167025099</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.968375595565746</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.916992804371538</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.280295489603389</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.04029589518017358</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7153734575336425</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4796424779378139</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.7737921542105178</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.10216429526109</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.009862457187404</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.684537656989959</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.742652759798295</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.204966683586089</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04305813295063771</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5246616812631167</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.110225793444325</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1302731634004638</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1633066603804871</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.40791194534957</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.269191869564748</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.97566002020093</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.7957317643146</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>14.38731252971296</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6448693330923752</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8108666332725115</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.489827912094977</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.27886171264992</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.952313375639758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1105,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
